--- a/Code/Results/Cases/Case_2_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.69298667366454</v>
+        <v>10.33992315719617</v>
       </c>
       <c r="C2">
-        <v>11.64266397386878</v>
+        <v>8.777269625212423</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.93898000337406</v>
+        <v>12.6172380270932</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>16.88000860523153</v>
+        <v>17.64171322286508</v>
       </c>
       <c r="H2">
-        <v>6.833110664318172</v>
+        <v>11.35281987289404</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.81374045443223</v>
+        <v>13.38866338775711</v>
       </c>
       <c r="N2">
-        <v>11.26769562894629</v>
+        <v>16.00341270652173</v>
       </c>
       <c r="O2">
-        <v>10.74372597254892</v>
+        <v>15.79316265678191</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.5944151091003</v>
+        <v>9.73012301025404</v>
       </c>
       <c r="C3">
-        <v>11.10069462957255</v>
+        <v>8.539781048769274</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.24043963865083</v>
+        <v>12.49652207463946</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.15192785266551</v>
+        <v>17.58493340090801</v>
       </c>
       <c r="H3">
-        <v>6.858123418097153</v>
+        <v>11.39521390737662</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.75160027363603</v>
+        <v>13.11164444333345</v>
       </c>
       <c r="N3">
-        <v>11.35360178181497</v>
+        <v>16.0406846585789</v>
       </c>
       <c r="O3">
-        <v>10.62296844827733</v>
+        <v>15.84611711151641</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.88133254376909</v>
+        <v>9.333670343419312</v>
       </c>
       <c r="C4">
-        <v>10.75368190623974</v>
+        <v>8.389694039751355</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.80551592751965</v>
+        <v>12.42677375572341</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>15.7169467604174</v>
+        <v>17.55933004182025</v>
       </c>
       <c r="H4">
-        <v>6.87962424614054</v>
+        <v>11.42350618813135</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.06419127153785</v>
+        <v>12.94134546367982</v>
       </c>
       <c r="N4">
-        <v>11.41010945442177</v>
+        <v>16.0653452144461</v>
       </c>
       <c r="O4">
-        <v>10.56212871518827</v>
+        <v>15.88335191161698</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58107037042784</v>
+        <v>9.166612735328403</v>
       </c>
       <c r="C5">
-        <v>10.60880935912368</v>
+        <v>8.327523494905057</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.62699860198204</v>
+        <v>12.39948182964083</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>15.54300745071103</v>
+        <v>17.55122957547699</v>
       </c>
       <c r="H5">
-        <v>6.889863703147162</v>
+        <v>11.43560354757475</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.77519455467678</v>
+        <v>12.8719947106504</v>
       </c>
       <c r="N5">
-        <v>11.43406346185114</v>
+        <v>16.07584168600638</v>
       </c>
       <c r="O5">
-        <v>10.54058267820242</v>
+        <v>15.89970726665762</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.53062860609007</v>
+        <v>9.138542181223027</v>
       </c>
       <c r="C6">
-        <v>10.58454817885231</v>
+        <v>8.317141164748062</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.59728603516257</v>
+        <v>12.39501921359238</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>15.51433385990089</v>
+        <v>17.5500254614865</v>
       </c>
       <c r="H6">
-        <v>6.891651270798445</v>
+        <v>11.43764658824928</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.72667108885916</v>
+        <v>12.86048489793031</v>
       </c>
       <c r="N6">
-        <v>11.43809644556383</v>
+        <v>16.077611639792</v>
       </c>
       <c r="O6">
-        <v>10.53719792732203</v>
+        <v>15.90249428741372</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.87732223998357</v>
+        <v>9.331439553128869</v>
       </c>
       <c r="C7">
-        <v>10.75174194936666</v>
+        <v>8.38885958235954</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.80311323748296</v>
+        <v>12.42640106768547</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>15.71458713399274</v>
+        <v>17.55921134661254</v>
       </c>
       <c r="H7">
-        <v>6.879756443538605</v>
+        <v>11.42366703852988</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.06032968280769</v>
+        <v>12.94040984947035</v>
       </c>
       <c r="N7">
-        <v>11.41042877858755</v>
+        <v>16.06548496239964</v>
       </c>
       <c r="O7">
-        <v>10.56182513228576</v>
+        <v>15.88356770731445</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.32220827948443</v>
+        <v>10.13425774965859</v>
       </c>
       <c r="C8">
-        <v>11.45881381387693</v>
+        <v>8.696306533978508</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.69949769169323</v>
+        <v>12.57472771025954</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>16.62663123372562</v>
+        <v>17.62021789740195</v>
       </c>
       <c r="H8">
-        <v>6.840419469872104</v>
+        <v>11.36696733464614</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.45482146254044</v>
+        <v>13.29324961704647</v>
       </c>
       <c r="N8">
-        <v>11.29652358212429</v>
+        <v>16.01589597389943</v>
       </c>
       <c r="O8">
-        <v>10.69927133775406</v>
+        <v>15.81043858496723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.84961913813978</v>
+        <v>11.53252353746393</v>
       </c>
       <c r="C9">
-        <v>12.72815794493943</v>
+        <v>9.262760797427363</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.40155342672602</v>
+        <v>12.89875651657895</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.49901572014207</v>
+        <v>17.81289437971144</v>
       </c>
       <c r="H9">
-        <v>6.81506565430363</v>
+        <v>11.27376491217689</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.91081972308349</v>
+        <v>13.97926558861123</v>
       </c>
       <c r="N9">
-        <v>11.10392740802436</v>
+        <v>15.93271089461797</v>
       </c>
       <c r="O9">
-        <v>11.07814734449715</v>
+        <v>15.70470667162819</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.52074671379523</v>
+        <v>12.45144173811014</v>
       </c>
       <c r="C10">
-        <v>13.58486462831329</v>
+        <v>9.653594971327994</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.73487868110206</v>
+        <v>13.154829100926</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>19.91162095692444</v>
+        <v>17.99809184883239</v>
       </c>
       <c r="H10">
-        <v>6.832222722966306</v>
+        <v>11.21630262871601</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.54781090118635</v>
+        <v>14.47423770674849</v>
       </c>
       <c r="N10">
-        <v>10.98258893868417</v>
+        <v>15.88012730581339</v>
       </c>
       <c r="O10">
-        <v>11.42736979824928</v>
+        <v>15.65027358961744</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.24101498990049</v>
+        <v>12.8458515835829</v>
       </c>
       <c r="C11">
-        <v>13.95749339533677</v>
+        <v>9.8253269156488</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.3620084834945</v>
+        <v>13.27472721889945</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>20.55989320874517</v>
+        <v>18.09153666158632</v>
       </c>
       <c r="H11">
-        <v>6.848708053470901</v>
+        <v>11.19256343070284</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.25688914497921</v>
+        <v>14.69638086799627</v>
       </c>
       <c r="N11">
-        <v>10.93211075018088</v>
+        <v>15.85805056059112</v>
       </c>
       <c r="O11">
-        <v>11.60226734408588</v>
+        <v>15.6306122344677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.50805711773629</v>
+        <v>12.99180641463258</v>
       </c>
       <c r="C12">
-        <v>14.09610363842141</v>
+        <v>9.889444472006881</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.59618583345144</v>
+        <v>13.32057567655743</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>20.80604011962959</v>
+        <v>18.12821464556412</v>
       </c>
       <c r="H12">
-        <v>6.856273359762543</v>
+        <v>11.18392010019807</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.52034917032128</v>
+        <v>14.77998360282139</v>
       </c>
       <c r="N12">
-        <v>10.91370630406104</v>
+        <v>15.84995521445153</v>
       </c>
       <c r="O12">
-        <v>11.67083888652439</v>
+        <v>15.62390426439373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.45079805154402</v>
+        <v>12.96052366180211</v>
       </c>
       <c r="C13">
-        <v>14.06636296064907</v>
+        <v>9.875676867861525</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.54589692293239</v>
+        <v>13.31068228829838</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>20.75300068561501</v>
+        <v>18.12025842258988</v>
       </c>
       <c r="H13">
-        <v>6.854584030851944</v>
+        <v>11.18576618389591</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.46383190855063</v>
+        <v>14.76200257237707</v>
       </c>
       <c r="N13">
-        <v>10.91763789321164</v>
+        <v>15.85168693003911</v>
       </c>
       <c r="O13">
-        <v>11.65596615516492</v>
+        <v>15.62531609344242</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.26309887743114</v>
+        <v>12.85792752140969</v>
       </c>
       <c r="C14">
-        <v>13.96894715319154</v>
+        <v>9.830620441897995</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.38134004600239</v>
+        <v>13.27849052574499</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>20.58013138649494</v>
+        <v>18.09452846452476</v>
       </c>
       <c r="H14">
-        <v>6.849303523263162</v>
+        <v>11.19184539504207</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.2786650107488</v>
+        <v>14.70326975755112</v>
       </c>
       <c r="N14">
-        <v>10.93058217287147</v>
+        <v>15.85737925066018</v>
       </c>
       <c r="O14">
-        <v>11.60786166223949</v>
+        <v>15.63004556695957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.14738552993436</v>
+        <v>12.79464162264143</v>
       </c>
       <c r="C15">
-        <v>13.90895112233933</v>
+        <v>9.802901923682194</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.28011686655576</v>
+        <v>13.25882884138165</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>20.47432596742621</v>
+        <v>18.07893548012699</v>
       </c>
       <c r="H15">
-        <v>6.84624350975355</v>
+        <v>11.19561420001544</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.16458906071067</v>
+        <v>14.6672243576108</v>
       </c>
       <c r="N15">
-        <v>10.93860444354468</v>
+        <v>15.86090041052485</v>
       </c>
       <c r="O15">
-        <v>11.57870213386582</v>
+        <v>15.6330386412914</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.47287470996037</v>
+        <v>12.42519055657699</v>
       </c>
       <c r="C16">
-        <v>13.56016500399769</v>
+        <v>9.642246235865166</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.69342700102592</v>
+        <v>13.14705828498123</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>19.86935484076574</v>
+        <v>17.9921675999007</v>
       </c>
       <c r="H16">
-        <v>6.831326415444354</v>
+        <v>11.2179024325339</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.50076014446849</v>
+        <v>14.45965206079619</v>
       </c>
       <c r="N16">
-        <v>10.98598544182549</v>
+        <v>15.88160713213789</v>
       </c>
       <c r="O16">
-        <v>11.41626576672633</v>
+        <v>15.65166148396547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.04887835890764</v>
+        <v>12.19249268020163</v>
       </c>
       <c r="C17">
-        <v>13.34178764878917</v>
+        <v>9.54210562514705</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.32753118417734</v>
+        <v>13.07933239654836</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>19.49955497003859</v>
+        <v>17.94127381098462</v>
       </c>
       <c r="H17">
-        <v>6.824451649320909</v>
+        <v>11.2321911106746</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.0844498691904</v>
+        <v>14.33147809816333</v>
       </c>
       <c r="N17">
-        <v>11.01628278594008</v>
+        <v>15.89478191784884</v>
       </c>
       <c r="O17">
-        <v>11.32075167485896</v>
+        <v>15.66439526449047</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.80124537545814</v>
+        <v>12.05642866972088</v>
       </c>
       <c r="C18">
-        <v>13.21457560758401</v>
+        <v>9.483939194064854</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.1148526474402</v>
+        <v>13.04070189790573</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>19.28739663120245</v>
+        <v>17.91286882387438</v>
       </c>
       <c r="H18">
-        <v>6.821310083831523</v>
+        <v>11.24063548666158</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.84164412966575</v>
+        <v>14.25747603593115</v>
       </c>
       <c r="N18">
-        <v>11.03415115731884</v>
+        <v>15.90253328168449</v>
       </c>
       <c r="O18">
-        <v>11.2673222511628</v>
+        <v>15.67219927390366</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.71675410419237</v>
+        <v>12.00997824013075</v>
       </c>
       <c r="C19">
-        <v>13.17122911516996</v>
+        <v>9.464148803705916</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.04245881016077</v>
+        <v>13.02767920787671</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>19.21566167672081</v>
+        <v>17.90340127977939</v>
       </c>
       <c r="H19">
-        <v>6.820383695826394</v>
+        <v>11.24353337702059</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.75885615388179</v>
+        <v>14.23237478382185</v>
       </c>
       <c r="N19">
-        <v>11.04027608762475</v>
+        <v>15.90518758738594</v>
       </c>
       <c r="O19">
-        <v>11.24948967762698</v>
+        <v>15.67492387115487</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.09440256226883</v>
+        <v>12.21749381456287</v>
       </c>
       <c r="C20">
-        <v>13.36520093903077</v>
+        <v>9.552824889171346</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.36671110936399</v>
+        <v>13.08650875834178</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>19.53886607301985</v>
+        <v>17.94660193652818</v>
       </c>
       <c r="H20">
-        <v>6.825098836228633</v>
+        <v>11.23064666894127</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.12911359225471</v>
+        <v>14.34515201363729</v>
       </c>
       <c r="N20">
-        <v>11.0130115989756</v>
+        <v>15.89336147862653</v>
       </c>
       <c r="O20">
-        <v>11.3307629768801</v>
+        <v>15.66299003693604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.31838527398221</v>
+        <v>12.88815477696565</v>
       </c>
       <c r="C21">
-        <v>13.99762853671581</v>
+        <v>9.843879716166736</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.42976327212801</v>
+        <v>13.28793429108671</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>20.63089042202285</v>
+        <v>18.10205115867953</v>
       </c>
       <c r="H21">
-        <v>6.850818049215556</v>
+        <v>11.19005038022201</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.33318957174244</v>
+        <v>14.72053570830185</v>
       </c>
       <c r="N21">
-        <v>10.92676057291335</v>
+        <v>15.85570009981669</v>
       </c>
       <c r="O21">
-        <v>11.62192732452445</v>
+        <v>15.62863636501601</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.08507966058026</v>
+        <v>13.30665525184325</v>
       </c>
       <c r="C22">
-        <v>14.39639628424852</v>
+        <v>10.02875906337189</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.10532673139792</v>
+        <v>13.42215397621811</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>21.36611327390288</v>
+        <v>18.21116310179751</v>
       </c>
       <c r="H22">
-        <v>6.875370620854983</v>
+        <v>11.16553665179177</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.09070944282965</v>
+        <v>14.96281600260023</v>
       </c>
       <c r="N22">
-        <v>10.87454884041473</v>
+        <v>15.83262850185006</v>
       </c>
       <c r="O22">
-        <v>11.825879725106</v>
+        <v>15.61048367984159</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.67890957574511</v>
+        <v>13.08510733375986</v>
       </c>
       <c r="C23">
-        <v>14.18490870582355</v>
+        <v>9.930587092244881</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.74649046401615</v>
+        <v>13.3502975557878</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>20.96514273398648</v>
+        <v>18.15225112010189</v>
       </c>
       <c r="H23">
-        <v>6.86153348956705</v>
+        <v>11.17843509829595</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.68907412798594</v>
+        <v>14.83381217213777</v>
       </c>
       <c r="N23">
-        <v>10.90202351671397</v>
+        <v>15.84480128982254</v>
       </c>
       <c r="O23">
-        <v>11.71576697063064</v>
+        <v>15.61977752139601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.07383313239753</v>
+        <v>12.20619791211374</v>
       </c>
       <c r="C24">
-        <v>13.35462097043875</v>
+        <v>9.547980557684136</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.34900509835065</v>
+        <v>13.08326336857906</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>19.52109212650657</v>
+        <v>17.94419042692851</v>
       </c>
       <c r="H24">
-        <v>6.824803723122624</v>
+        <v>11.2313441958447</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.10893191575023</v>
+        <v>14.3389710054087</v>
       </c>
       <c r="N24">
-        <v>11.01448910326002</v>
+        <v>15.8940031077956</v>
       </c>
       <c r="O24">
-        <v>11.32623225114381</v>
+        <v>15.66362383549741</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.19860501624554</v>
+        <v>11.17323983891486</v>
       </c>
       <c r="C25">
-        <v>12.39783292670315</v>
+        <v>9.113762433334577</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.94802681070493</v>
+        <v>12.80776829266617</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>17.98507282125477</v>
+        <v>17.75302500047678</v>
       </c>
       <c r="H25">
-        <v>6.815947440994105</v>
+        <v>11.29704806051805</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.27602371746378</v>
+        <v>13.79488989979752</v>
       </c>
       <c r="N25">
-        <v>11.15259803462156</v>
+        <v>15.95371355708131</v>
       </c>
       <c r="O25">
-        <v>10.96346159883321</v>
+        <v>15.7292464187332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_200/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.33992315719617</v>
+        <v>17.69298667366451</v>
       </c>
       <c r="C2">
-        <v>8.777269625212423</v>
+        <v>11.64266397386871</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.6172380270932</v>
+        <v>12.93898000337404</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>17.64171322286508</v>
+        <v>16.88000860523152</v>
       </c>
       <c r="H2">
-        <v>11.35281987289404</v>
+        <v>6.833110664318159</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.38866338775711</v>
+        <v>16.81374045443224</v>
       </c>
       <c r="N2">
-        <v>16.00341270652173</v>
+        <v>11.26769562894626</v>
       </c>
       <c r="O2">
-        <v>15.79316265678191</v>
+        <v>10.7437259725489</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.73012301025404</v>
+        <v>16.59441510910028</v>
       </c>
       <c r="C3">
-        <v>8.539781048769274</v>
+        <v>11.10069462957254</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.49652207463946</v>
+        <v>12.24043963865083</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>17.58493340090801</v>
+        <v>16.15192785266558</v>
       </c>
       <c r="H3">
-        <v>11.39521390737662</v>
+        <v>6.858123418097316</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.11164444333345</v>
+        <v>15.75160027363599</v>
       </c>
       <c r="N3">
-        <v>16.0406846585789</v>
+        <v>11.35360178181503</v>
       </c>
       <c r="O3">
-        <v>15.84611711151641</v>
+        <v>10.62296844827745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.333670343419312</v>
+        <v>15.88133254376909</v>
       </c>
       <c r="C4">
-        <v>8.389694039751355</v>
+        <v>10.75368190623965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.42677375572341</v>
+        <v>11.80551592751959</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>17.55933004182025</v>
+        <v>15.71694676041741</v>
       </c>
       <c r="H4">
-        <v>11.42350618813135</v>
+        <v>6.879624246140594</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.94134546367982</v>
+        <v>15.06419127153789</v>
       </c>
       <c r="N4">
-        <v>16.0653452144461</v>
+        <v>11.41010945442177</v>
       </c>
       <c r="O4">
-        <v>15.88335191161698</v>
+        <v>10.56212871518831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.166612735328403</v>
+        <v>15.58107037042783</v>
       </c>
       <c r="C5">
-        <v>8.327523494905057</v>
+        <v>10.6088093591238</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.39948182964083</v>
+        <v>11.62699860198199</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>17.55122957547699</v>
+        <v>15.54300745071087</v>
       </c>
       <c r="H5">
-        <v>11.43560354757475</v>
+        <v>6.889863703147042</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.8719947106504</v>
+        <v>14.77519455467682</v>
       </c>
       <c r="N5">
-        <v>16.07584168600638</v>
+        <v>11.43406346185112</v>
       </c>
       <c r="O5">
-        <v>15.89970726665762</v>
+        <v>10.54058267820233</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.138542181223027</v>
+        <v>15.53062860608996</v>
       </c>
       <c r="C6">
-        <v>8.317141164748062</v>
+        <v>10.5845481788524</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.39501921359238</v>
+        <v>11.59728603516258</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>17.5500254614865</v>
+        <v>15.5143338599009</v>
       </c>
       <c r="H6">
-        <v>11.43764658824928</v>
+        <v>6.891651270798485</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.86048489793031</v>
+        <v>14.72667108885912</v>
       </c>
       <c r="N6">
-        <v>16.077611639792</v>
+        <v>11.43809644556384</v>
       </c>
       <c r="O6">
-        <v>15.90249428741372</v>
+        <v>10.53719792732208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.331439553128869</v>
+        <v>15.8773222399835</v>
       </c>
       <c r="C7">
-        <v>8.38885958235954</v>
+        <v>10.75174194936648</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.42640106768547</v>
+        <v>11.80311323748292</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.55921134661254</v>
+        <v>15.71458713399285</v>
       </c>
       <c r="H7">
-        <v>11.42366703852988</v>
+        <v>6.879756443538662</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.94040984947035</v>
+        <v>15.06032968280769</v>
       </c>
       <c r="N7">
-        <v>16.06548496239964</v>
+        <v>11.41042877858761</v>
       </c>
       <c r="O7">
-        <v>15.88356770731445</v>
+        <v>10.56182513228587</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.13425774965859</v>
+        <v>17.32220827948438</v>
       </c>
       <c r="C8">
-        <v>8.696306533978508</v>
+        <v>11.45881381387712</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.57472771025954</v>
+        <v>12.69949769169323</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>17.62021789740195</v>
+        <v>16.6266312337256</v>
       </c>
       <c r="H8">
-        <v>11.36696733464614</v>
+        <v>6.840419469872098</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.29324961704647</v>
+        <v>16.45482146254044</v>
       </c>
       <c r="N8">
-        <v>16.01589597389943</v>
+        <v>11.29652358212429</v>
       </c>
       <c r="O8">
-        <v>15.81043858496723</v>
+        <v>10.69927133775405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.53252353746393</v>
+        <v>19.84961913813987</v>
       </c>
       <c r="C9">
-        <v>9.262760797427363</v>
+        <v>12.72815794493937</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.89875651657895</v>
+        <v>14.40155342672605</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>17.81289437971144</v>
+        <v>18.49901572014205</v>
       </c>
       <c r="H9">
-        <v>11.27376491217689</v>
+        <v>6.815065654303531</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.97926558861123</v>
+        <v>18.9108197230835</v>
       </c>
       <c r="N9">
-        <v>15.93271089461797</v>
+        <v>11.10392740802433</v>
       </c>
       <c r="O9">
-        <v>15.70470667162819</v>
+        <v>11.07814734449707</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.45144173811014</v>
+        <v>21.52074671379525</v>
       </c>
       <c r="C10">
-        <v>9.653594971327994</v>
+        <v>13.58486462831325</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.154829100926</v>
+        <v>15.73487868110206</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>17.99809184883239</v>
+        <v>19.91162095692448</v>
       </c>
       <c r="H10">
-        <v>11.21630262871601</v>
+        <v>6.832222722966312</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.47423770674849</v>
+        <v>20.54781090118636</v>
       </c>
       <c r="N10">
-        <v>15.88012730581339</v>
+        <v>10.98258893868417</v>
       </c>
       <c r="O10">
-        <v>15.65027358961744</v>
+        <v>11.42736979824928</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.8458515835829</v>
+        <v>22.24101498990053</v>
       </c>
       <c r="C11">
-        <v>9.8253269156488</v>
+        <v>13.9574933953368</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.27472721889945</v>
+        <v>16.36200848349447</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>18.09153666158632</v>
+        <v>20.55989320874513</v>
       </c>
       <c r="H11">
-        <v>11.19256343070284</v>
+        <v>6.848708053470825</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.69638086799627</v>
+        <v>21.25688914497923</v>
       </c>
       <c r="N11">
-        <v>15.85805056059112</v>
+        <v>10.93211075018085</v>
       </c>
       <c r="O11">
-        <v>15.6306122344677</v>
+        <v>11.60226734408583</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.99180641463258</v>
+        <v>22.50805711773621</v>
       </c>
       <c r="C12">
-        <v>9.889444472006881</v>
+        <v>14.09610363842134</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.32057567655743</v>
+        <v>16.59618583345143</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>18.12821464556412</v>
+        <v>20.80604011962961</v>
       </c>
       <c r="H12">
-        <v>11.18392010019807</v>
+        <v>6.856273359762572</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.77998360282139</v>
+        <v>21.52034917032124</v>
       </c>
       <c r="N12">
-        <v>15.84995521445153</v>
+        <v>10.91370630406104</v>
       </c>
       <c r="O12">
-        <v>15.62390426439373</v>
+        <v>11.67083888652442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.96052366180211</v>
+        <v>22.45079805154401</v>
       </c>
       <c r="C13">
-        <v>9.875676867861525</v>
+        <v>14.06636296064917</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.31068228829838</v>
+        <v>16.5458969229324</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>18.12025842258988</v>
+        <v>20.75300068561498</v>
       </c>
       <c r="H13">
-        <v>11.18576618389591</v>
+        <v>6.854584030851989</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.76200257237707</v>
+        <v>21.46383190855062</v>
       </c>
       <c r="N13">
-        <v>15.85168693003911</v>
+        <v>10.91763789321167</v>
       </c>
       <c r="O13">
-        <v>15.62531609344242</v>
+        <v>11.65596615516494</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.85792752140969</v>
+        <v>22.26309887743109</v>
       </c>
       <c r="C14">
-        <v>9.830620441897995</v>
+        <v>13.96894715319151</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.27849052574499</v>
+        <v>16.38134004600241</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>18.09452846452476</v>
+        <v>20.58013138649492</v>
       </c>
       <c r="H14">
-        <v>11.19184539504207</v>
+        <v>6.849303523263194</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.70326975755112</v>
+        <v>21.27866501074879</v>
       </c>
       <c r="N14">
-        <v>15.85737925066018</v>
+        <v>10.93058217287144</v>
       </c>
       <c r="O14">
-        <v>15.63004556695957</v>
+        <v>11.60786166223952</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.79464162264143</v>
+        <v>22.14738552993433</v>
       </c>
       <c r="C15">
-        <v>9.802901923682194</v>
+        <v>13.90895112233937</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.25882884138165</v>
+        <v>16.28011686655576</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>18.07893548012699</v>
+        <v>20.47432596742619</v>
       </c>
       <c r="H15">
-        <v>11.19561420001544</v>
+        <v>6.846243509753543</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.6672243576108</v>
+        <v>21.16458906071067</v>
       </c>
       <c r="N15">
-        <v>15.86090041052485</v>
+        <v>10.93860444354469</v>
       </c>
       <c r="O15">
-        <v>15.6330386412914</v>
+        <v>11.57870213386581</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.42519055657699</v>
+        <v>21.47287470996035</v>
       </c>
       <c r="C16">
-        <v>9.642246235865166</v>
+        <v>13.56016500399769</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.14705828498123</v>
+        <v>15.69342700102592</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>17.9921675999007</v>
+        <v>19.86935484076581</v>
       </c>
       <c r="H16">
-        <v>11.2179024325339</v>
+        <v>6.83132641544436</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.45965206079619</v>
+        <v>20.50076014446848</v>
       </c>
       <c r="N16">
-        <v>15.88160713213789</v>
+        <v>10.98598544182548</v>
       </c>
       <c r="O16">
-        <v>15.65166148396547</v>
+        <v>11.41626576672638</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.19249268020163</v>
+        <v>21.04887835890754</v>
       </c>
       <c r="C17">
-        <v>9.54210562514705</v>
+        <v>13.34178764878921</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.07933239654836</v>
+        <v>15.32753118417732</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>17.94127381098462</v>
+        <v>19.49955497003859</v>
       </c>
       <c r="H17">
-        <v>11.2321911106746</v>
+        <v>6.824451649320968</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.33147809816333</v>
+        <v>20.08444986919037</v>
       </c>
       <c r="N17">
-        <v>15.89478191784884</v>
+        <v>11.01628278594008</v>
       </c>
       <c r="O17">
-        <v>15.66439526449047</v>
+        <v>11.32075167485903</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.05642866972088</v>
+        <v>20.80124537545812</v>
       </c>
       <c r="C18">
-        <v>9.483939194064854</v>
+        <v>13.21457560758401</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.04070189790573</v>
+        <v>15.11485264744019</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>17.91286882387438</v>
+        <v>19.28739663120245</v>
       </c>
       <c r="H18">
-        <v>11.24063548666158</v>
+        <v>6.821310083831536</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.25747603593115</v>
+        <v>19.84164412966573</v>
       </c>
       <c r="N18">
-        <v>15.90253328168449</v>
+        <v>11.03415115731884</v>
       </c>
       <c r="O18">
-        <v>15.67219927390366</v>
+        <v>11.26732225116283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.00997824013075</v>
+        <v>20.71675410419234</v>
       </c>
       <c r="C19">
-        <v>9.464148803705916</v>
+        <v>13.17122911517002</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.02767920787671</v>
+        <v>15.04245881016075</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>17.90340127977939</v>
+        <v>19.21566167672082</v>
       </c>
       <c r="H19">
-        <v>11.24353337702059</v>
+        <v>6.820383695826409</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.23237478382185</v>
+        <v>19.75885615388178</v>
       </c>
       <c r="N19">
-        <v>15.90518758738594</v>
+        <v>11.04027608762472</v>
       </c>
       <c r="O19">
-        <v>15.67492387115487</v>
+        <v>11.24948967762698</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.21749381456287</v>
+        <v>21.09440256226882</v>
       </c>
       <c r="C20">
-        <v>9.552824889171346</v>
+        <v>13.3652009390307</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.08650875834178</v>
+        <v>15.36671110936403</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>17.94660193652818</v>
+        <v>19.5388660730198</v>
       </c>
       <c r="H20">
-        <v>11.23064666894127</v>
+        <v>6.825098836228667</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.34515201363729</v>
+        <v>20.12911359225473</v>
       </c>
       <c r="N20">
-        <v>15.89336147862653</v>
+        <v>11.0130115989756</v>
       </c>
       <c r="O20">
-        <v>15.66299003693604</v>
+        <v>11.33076297688011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.88815477696565</v>
+        <v>22.31838527398223</v>
       </c>
       <c r="C21">
-        <v>9.843879716166736</v>
+        <v>13.9976285367158</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.28793429108671</v>
+        <v>16.429763272128</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>18.10205115867953</v>
+        <v>20.63089042202289</v>
       </c>
       <c r="H21">
-        <v>11.19005038022201</v>
+        <v>6.85081804921557</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.72053570830185</v>
+        <v>21.33318957174244</v>
       </c>
       <c r="N21">
-        <v>15.85570009981669</v>
+        <v>10.92676057291334</v>
       </c>
       <c r="O21">
-        <v>15.62863636501601</v>
+        <v>11.62192732452447</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.30665525184325</v>
+        <v>23.08507966058026</v>
       </c>
       <c r="C22">
-        <v>10.02875906337189</v>
+        <v>14.39639628424859</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.42215397621811</v>
+        <v>17.10532673139792</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>18.21116310179751</v>
+        <v>21.36611327390293</v>
       </c>
       <c r="H22">
-        <v>11.16553665179177</v>
+        <v>6.875370620854948</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.96281600260023</v>
+        <v>22.09070944282966</v>
       </c>
       <c r="N22">
-        <v>15.83262850185006</v>
+        <v>10.87454884041472</v>
       </c>
       <c r="O22">
-        <v>15.61048367984159</v>
+        <v>11.82587972510601</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.08510733375986</v>
+        <v>22.67890957574513</v>
       </c>
       <c r="C23">
-        <v>9.930587092244881</v>
+        <v>14.18490870582358</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.3502975557878</v>
+        <v>16.74649046401613</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>18.15225112010189</v>
+        <v>20.96514273398645</v>
       </c>
       <c r="H23">
-        <v>11.17843509829595</v>
+        <v>6.861533489567043</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.83381217213777</v>
+        <v>21.68907412798594</v>
       </c>
       <c r="N23">
-        <v>15.84480128982254</v>
+        <v>10.90202351671392</v>
       </c>
       <c r="O23">
-        <v>15.61977752139601</v>
+        <v>11.71576697063057</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.20619791211374</v>
+        <v>21.07383313239751</v>
       </c>
       <c r="C24">
-        <v>9.547980557684136</v>
+        <v>13.35462097043868</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.08326336857906</v>
+        <v>15.34900509835063</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>17.94419042692851</v>
+        <v>19.52109212650657</v>
       </c>
       <c r="H24">
-        <v>11.2313441958447</v>
+        <v>6.824803723122659</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.3389710054087</v>
+        <v>20.10893191575023</v>
       </c>
       <c r="N24">
-        <v>15.8940031077956</v>
+        <v>11.01448910325997</v>
       </c>
       <c r="O24">
-        <v>15.66362383549741</v>
+        <v>11.32623225114377</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17323983891486</v>
+        <v>19.19860501624555</v>
       </c>
       <c r="C25">
-        <v>9.113762433334577</v>
+        <v>12.39783292670313</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.80776829266617</v>
+        <v>13.94802681070493</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>17.75302500047678</v>
+        <v>17.98507282125482</v>
       </c>
       <c r="H25">
-        <v>11.29704806051805</v>
+        <v>6.815947440994111</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.79488989979752</v>
+        <v>18.27602371746378</v>
       </c>
       <c r="N25">
-        <v>15.95371355708131</v>
+        <v>11.15259803462156</v>
       </c>
       <c r="O25">
-        <v>15.7292464187332</v>
+        <v>10.96346159883322</v>
       </c>
     </row>
   </sheetData>
